--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>b1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,6 +58,14 @@
   </si>
   <si>
     <t>distance from b2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,6 +112,159 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="354785368"/>
+        <c:axId val="130166200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="354785368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130166200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="130166200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="354785368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,14 +588,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A2:C22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
@@ -571,12 +740,14 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>

--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>b1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg velocity excluding b2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -236,16 +248,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -588,23 +600,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -614,8 +632,18 @@
       <c r="C2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <f ca="1">RANDBETWEEN(0, 5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -625,8 +653,18 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <f ca="1">RANDBETWEEN(0, 5)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -636,8 +674,18 @@
       <c r="C4">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <f ca="1">RANDBETWEEN(0, 5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -647,13 +695,50 @@
       <c r="C5">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f ca="1">RANDBETWEEN(0, 5)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="F6">
+        <f ca="1">RANDBETWEEN(0, 5)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <f ca="1">RANDBETWEEN(0, 5)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <f>(D2+D4+D5)/3</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="E8">
+        <f>(E2+E4+E5)/3</f>
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <f ca="1">RANDBETWEEN(0, 5)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -662,7 +747,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -671,7 +756,7 @@
         <v>1.5811388300841898</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -680,12 +765,12 @@
         <v>8.6023252670426267</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:6">
       <c r="B13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -698,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -740,7 +825,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
